--- a/biology/Médecine/Diagnostic_(médecine)/Diagnostic_(médecine).xlsx
+++ b/biology/Médecine/Diagnostic_(médecine)/Diagnostic_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diagnostic_(m%C3%A9decine)</t>
+          <t>Diagnostic_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, le diagnostic est la démarche par laquelle le vétérinaire, médecin, généraliste ou spécialiste, le kinésithérapeute, la sage-femme ou le chirurgien-dentiste, ou encore le psychologue au Canada, détermine l'affection dont souffre le patient, et qui permet de proposer un traitement. Il repose sur la recherche des causes (étiologie) et des effets (symptômes) de l'affection ; on parle aussi de « tableau clinique ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diagnostic_(m%C3%A9decine)</t>
+          <t>Diagnostic_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le diagnostic du médecin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Typiquement, le diagnostic se déroule en deux parties :
 Anamnèse (ou histoire de la maladie) : c'est l'étape la plus cruciale de la consultation. Le médecin y écoute son patient, d'abord librement, puis en l'orientant par des questions. L'anamnèse permet de connaître les antécédents du patient, les symptômes ressentis, l'ancienneté de la maladie et son évolution, les traitements déjà suivis, les attentes du patient…
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diagnostic_(m%C3%A9decine)</t>
+          <t>Diagnostic_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,11 +570,13 @@
           <t>Diagnostic in vitro et in vivo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe deux principaux types de diagnostics médicaux :
 Le diagnostic in vivo : c'est le diagnostic de la maladie dans le corps du patient. Il s'appuie par exemple sur l'imagerie médicale (imagerie par rayon X, IRM, etc.) ;
-Le diagnostic in vitro : c'est le diagnostic de la maladie à partir d'un échantillon de fluide corporel (échantillon de sang, d'urine, de lymphe, salive, etc.), d'un échantillon de cellules (frottis), ou de tissus biologiques ou d'organe (biopsie) prélevé sur le corps et étudié in situ ou en laboratoire comme le laboratoire de diagnostic des infections virales. Remarque : des dispositifs électroniques de mesure en direct apparaissent sur le marché (mesure de la température, du taux de sucre, etc.). En Europe, quand il utilise un support ou un matériel électronique (ex microarray)[1], ce type de « dispositif de diagnostic médical in vitro » reste soumis à la législation visant à limiter le risque infectieux, mais peut dérogatoirement échapper à la « Directive RoHS » (uniquement quand ces dispositifs sont destinés à devenir « infectieux » avant leur « fin de vie »).</t>
+Le diagnostic in vitro : c'est le diagnostic de la maladie à partir d'un échantillon de fluide corporel (échantillon de sang, d'urine, de lymphe, salive, etc.), d'un échantillon de cellules (frottis), ou de tissus biologiques ou d'organe (biopsie) prélevé sur le corps et étudié in situ ou en laboratoire comme le laboratoire de diagnostic des infections virales. Remarque : des dispositifs électroniques de mesure en direct apparaissent sur le marché (mesure de la température, du taux de sucre, etc.). En Europe, quand il utilise un support ou un matériel électronique (ex microarray), ce type de « dispositif de diagnostic médical in vitro » reste soumis à la législation visant à limiter le risque infectieux, mais peut dérogatoirement échapper à la « Directive RoHS » (uniquement quand ces dispositifs sont destinés à devenir « infectieux » avant leur « fin de vie »).</t>
         </is>
       </c>
     </row>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diagnostic_(m%C3%A9decine)</t>
+          <t>Diagnostic_(médecine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,12 +606,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reconnaissance de motifs ou de formes
-Raisonnement analogique ou reconnaissance de formes.
-Hypothético-déductif
-Inférence
-Le raisonnement bayésien construit, à partir d'éléments de l'entretien et de l'observation, une probabilité de la cause du symptôme ou de l'épisode, qui s'affinera de plus en plus. Ainsi le diagnostic indique-t-il qu'une maladie ou une causalité est plus qu'une autre est probablement à l'origine des symptômes du patient; des examens renforcent ou infirment l'hypothèse.
-Il semblerait qu'à l'issue de ce type de raisonnement, la plupart des médecins ont tendance à surestimer la probabilité que le patient soit effectivement malade, tant avant qu'après un test diagnostic[2].
+          <t>Reconnaissance de motifs ou de formes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raisonnement analogique ou reconnaissance de formes.
 </t>
         </is>
       </c>
@@ -606,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diagnostic_(m%C3%A9decine)</t>
+          <t>Diagnostic_(médecine)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,10 +638,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Raisonnements diagnostiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Inférence</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le raisonnement bayésien construit, à partir d'éléments de l'entretien et de l'observation, une probabilité de la cause du symptôme ou de l'épisode, qui s'affinera de plus en plus. Ainsi le diagnostic indique-t-il qu'une maladie ou une causalité est plus qu'une autre est probablement à l'origine des symptômes du patient; des examens renforcent ou infirment l'hypothèse.
+Il semblerait qu'à l'issue de ce type de raisonnement, la plupart des médecins ont tendance à surestimer la probabilité que le patient soit effectivement malade, tant avant qu'après un test diagnostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diagnostic_(médecine)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diagnostic_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Attention</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ne pas confondre avec le pronostic (estimation du devenir d'un patient).
 Le diagnostic se retrouve dans d'autres domaines que la médecine, voir la page d'homonymie diagnostic.</t>
